--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.275152308726405</v>
+        <v>0.3086536666666667</v>
       </c>
       <c r="H2">
-        <v>0.275152308726405</v>
+        <v>0.925961</v>
       </c>
       <c r="I2">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967933</v>
       </c>
       <c r="J2">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967932</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.397223241487838</v>
+        <v>0.5880153333333333</v>
       </c>
       <c r="N2">
-        <v>0.397223241487838</v>
+        <v>1.764046</v>
       </c>
       <c r="O2">
-        <v>0.05255609933371274</v>
+        <v>0.07240803044867099</v>
       </c>
       <c r="P2">
-        <v>0.05255609933371274</v>
+        <v>0.07240803044867097</v>
       </c>
       <c r="Q2">
-        <v>0.1092968919751649</v>
+        <v>0.1814930886895555</v>
       </c>
       <c r="R2">
-        <v>0.1092968919751649</v>
+        <v>1.633437798206</v>
       </c>
       <c r="S2">
-        <v>0.0115190661102179</v>
+        <v>0.01468447285590174</v>
       </c>
       <c r="T2">
-        <v>0.0115190661102179</v>
+        <v>0.01468447285590174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.275152308726405</v>
+        <v>0.3086536666666667</v>
       </c>
       <c r="H3">
-        <v>0.275152308726405</v>
+        <v>0.925961</v>
       </c>
       <c r="I3">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967933</v>
       </c>
       <c r="J3">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967932</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.05048628804975</v>
+        <v>3.062868333333333</v>
       </c>
       <c r="N3">
-        <v>3.05048628804975</v>
+        <v>9.188604999999999</v>
       </c>
       <c r="O3">
-        <v>0.403605941511305</v>
+        <v>0.3771606809690962</v>
       </c>
       <c r="P3">
-        <v>0.403605941511305</v>
+        <v>0.3771606809690962</v>
       </c>
       <c r="Q3">
-        <v>0.8393483448951301</v>
+        <v>0.9453655416005554</v>
       </c>
       <c r="R3">
-        <v>0.8393483448951301</v>
+        <v>8.508289874405</v>
       </c>
       <c r="S3">
-        <v>0.08846096992900684</v>
+        <v>0.07648883345791607</v>
       </c>
       <c r="T3">
-        <v>0.08846096992900684</v>
+        <v>0.07648883345791606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.275152308726405</v>
+        <v>0.3086536666666667</v>
       </c>
       <c r="H4">
-        <v>0.275152308726405</v>
+        <v>0.925961</v>
       </c>
       <c r="I4">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967933</v>
       </c>
       <c r="J4">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967932</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.548666315432052</v>
+        <v>0.6354796666666667</v>
       </c>
       <c r="N4">
-        <v>0.548666315432052</v>
+        <v>1.906439</v>
       </c>
       <c r="O4">
-        <v>0.0725933388663311</v>
+        <v>0.07825277411163532</v>
       </c>
       <c r="P4">
-        <v>0.0725933388663311</v>
+        <v>0.07825277411163532</v>
       </c>
       <c r="Q4">
-        <v>0.1509668034115391</v>
+        <v>0.1961431292087778</v>
       </c>
       <c r="R4">
-        <v>0.1509668034115391</v>
+        <v>1.765288162879</v>
       </c>
       <c r="S4">
-        <v>0.01591075974366163</v>
+        <v>0.01586979690265019</v>
       </c>
       <c r="T4">
-        <v>0.01591075974366163</v>
+        <v>0.01586979690265019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.275152308726405</v>
+        <v>0.3086536666666667</v>
       </c>
       <c r="H5">
-        <v>0.275152308726405</v>
+        <v>0.925961</v>
       </c>
       <c r="I5">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967933</v>
       </c>
       <c r="J5">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967932</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.987228882823278</v>
+        <v>1.052214666666667</v>
       </c>
       <c r="N5">
-        <v>0.987228882823278</v>
+        <v>3.156644</v>
       </c>
       <c r="O5">
-        <v>0.1306189915686468</v>
+        <v>0.1295693960744871</v>
       </c>
       <c r="P5">
-        <v>0.1306189915686468</v>
+        <v>0.129569396074487</v>
       </c>
       <c r="Q5">
-        <v>0.2716383063502145</v>
+        <v>0.3247699149871111</v>
       </c>
       <c r="R5">
-        <v>0.2716383063502145</v>
+        <v>2.922929234884</v>
       </c>
       <c r="S5">
-        <v>0.02862862385534931</v>
+        <v>0.0262768959164019</v>
       </c>
       <c r="T5">
-        <v>0.02862862385534931</v>
+        <v>0.02627689591640189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.275152308726405</v>
+        <v>0.3086536666666667</v>
       </c>
       <c r="H6">
-        <v>0.275152308726405</v>
+        <v>0.925961</v>
       </c>
       <c r="I6">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967933</v>
       </c>
       <c r="J6">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967932</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.786658700199748</v>
+        <v>0.8173073333333333</v>
       </c>
       <c r="N6">
-        <v>0.786658700199748</v>
+        <v>2.451922</v>
       </c>
       <c r="O6">
-        <v>0.1040818070830157</v>
+        <v>0.1006429780367214</v>
       </c>
       <c r="P6">
-        <v>0.1040818070830157</v>
+        <v>0.1006429780367214</v>
       </c>
       <c r="Q6">
-        <v>0.2164509575396736</v>
+        <v>0.2522649052268889</v>
       </c>
       <c r="R6">
-        <v>0.2164509575396736</v>
+        <v>2.270384147042</v>
       </c>
       <c r="S6">
-        <v>0.02281229451690183</v>
+        <v>0.02041056868913187</v>
       </c>
       <c r="T6">
-        <v>0.02281229451690183</v>
+        <v>0.02041056868913186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.275152308726405</v>
+        <v>0.3086536666666667</v>
       </c>
       <c r="H7">
-        <v>0.275152308726405</v>
+        <v>0.925961</v>
       </c>
       <c r="I7">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967933</v>
       </c>
       <c r="J7">
-        <v>0.2191765800021779</v>
+        <v>0.2028017163967932</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.7878172995288</v>
+        <v>1.964972666666667</v>
       </c>
       <c r="N7">
-        <v>1.7878172995288</v>
+        <v>5.894918000000001</v>
       </c>
       <c r="O7">
-        <v>0.2365438216369888</v>
+        <v>0.241966140359389</v>
       </c>
       <c r="P7">
-        <v>0.2365438216369888</v>
+        <v>0.241966140359389</v>
       </c>
       <c r="Q7">
-        <v>0.491922057546356</v>
+        <v>0.6064960184664445</v>
       </c>
       <c r="R7">
-        <v>0.491922057546356</v>
+        <v>5.458464166198</v>
       </c>
       <c r="S7">
-        <v>0.05184486584704036</v>
+        <v>0.04907114857479147</v>
       </c>
       <c r="T7">
-        <v>0.05184486584704036</v>
+        <v>0.04907114857479147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.980238703961497</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H8">
-        <v>0.980238703961497</v>
+        <v>3.639883</v>
       </c>
       <c r="I8">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032068</v>
       </c>
       <c r="J8">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032067</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.397223241487838</v>
+        <v>0.5880153333333333</v>
       </c>
       <c r="N8">
-        <v>0.397223241487838</v>
+        <v>1.764046</v>
       </c>
       <c r="O8">
-        <v>0.05255609933371274</v>
+        <v>0.07240803044867099</v>
       </c>
       <c r="P8">
-        <v>0.05255609933371274</v>
+        <v>0.07240803044867097</v>
       </c>
       <c r="Q8">
-        <v>0.3893735954194231</v>
+        <v>0.7134356718464444</v>
       </c>
       <c r="R8">
-        <v>0.3893735954194231</v>
+        <v>6.420921046618</v>
       </c>
       <c r="S8">
-        <v>0.04103703322349485</v>
+        <v>0.05772355759276925</v>
       </c>
       <c r="T8">
-        <v>0.04103703322349485</v>
+        <v>0.05772355759276922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.980238703961497</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H9">
-        <v>0.980238703961497</v>
+        <v>3.639883</v>
       </c>
       <c r="I9">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032068</v>
       </c>
       <c r="J9">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032067</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.05048628804975</v>
+        <v>3.062868333333333</v>
       </c>
       <c r="N9">
-        <v>3.05048628804975</v>
+        <v>9.188604999999999</v>
       </c>
       <c r="O9">
-        <v>0.403605941511305</v>
+        <v>0.3771606809690962</v>
       </c>
       <c r="P9">
-        <v>0.403605941511305</v>
+        <v>0.3771606809690962</v>
       </c>
       <c r="Q9">
-        <v>2.990204725450205</v>
+        <v>3.716160792579444</v>
       </c>
       <c r="R9">
-        <v>2.990204725450205</v>
+        <v>33.44544713321499</v>
       </c>
       <c r="S9">
-        <v>0.3151449715822982</v>
+        <v>0.3006718475111801</v>
       </c>
       <c r="T9">
-        <v>0.3151449715822982</v>
+        <v>0.3006718475111801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.980238703961497</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H10">
-        <v>0.980238703961497</v>
+        <v>3.639883</v>
       </c>
       <c r="I10">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032068</v>
       </c>
       <c r="J10">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032067</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.548666315432052</v>
+        <v>0.6354796666666667</v>
       </c>
       <c r="N10">
-        <v>0.548666315432052</v>
+        <v>1.906439</v>
       </c>
       <c r="O10">
-        <v>0.0725933388663311</v>
+        <v>0.07825277411163532</v>
       </c>
       <c r="P10">
-        <v>0.0725933388663311</v>
+        <v>0.07825277411163532</v>
       </c>
       <c r="Q10">
-        <v>0.5378239579464446</v>
+        <v>0.7710238785152221</v>
       </c>
       <c r="R10">
-        <v>0.5378239579464446</v>
+        <v>6.939214906637</v>
       </c>
       <c r="S10">
-        <v>0.05668257912266948</v>
+        <v>0.06238297720898513</v>
       </c>
       <c r="T10">
-        <v>0.05668257912266948</v>
+        <v>0.06238297720898513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.980238703961497</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H11">
-        <v>0.980238703961497</v>
+        <v>3.639883</v>
       </c>
       <c r="I11">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032068</v>
       </c>
       <c r="J11">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032067</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.987228882823278</v>
+        <v>1.052214666666667</v>
       </c>
       <c r="N11">
-        <v>0.987228882823278</v>
+        <v>3.156644</v>
       </c>
       <c r="O11">
-        <v>0.1306189915686468</v>
+        <v>0.1295693960744871</v>
       </c>
       <c r="P11">
-        <v>0.1306189915686468</v>
+        <v>0.129569396074487</v>
       </c>
       <c r="Q11">
-        <v>0.9677199606120467</v>
+        <v>1.276646092516889</v>
       </c>
       <c r="R11">
-        <v>0.9677199606120467</v>
+        <v>11.489814832652</v>
       </c>
       <c r="S11">
-        <v>0.1019903677132975</v>
+        <v>0.1032925001580852</v>
       </c>
       <c r="T11">
-        <v>0.1019903677132975</v>
+        <v>0.1032925001580851</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.980238703961497</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H12">
-        <v>0.980238703961497</v>
+        <v>3.639883</v>
       </c>
       <c r="I12">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032068</v>
       </c>
       <c r="J12">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032067</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.786658700199748</v>
+        <v>0.8173073333333333</v>
       </c>
       <c r="N12">
-        <v>0.786658700199748</v>
+        <v>2.451922</v>
       </c>
       <c r="O12">
-        <v>0.1040818070830157</v>
+        <v>0.1006429780367214</v>
       </c>
       <c r="P12">
-        <v>0.1040818070830157</v>
+        <v>0.1006429780367214</v>
       </c>
       <c r="Q12">
-        <v>0.7711133047438369</v>
+        <v>0.991634356125111</v>
       </c>
       <c r="R12">
-        <v>0.7711133047438369</v>
+        <v>8.924709205125998</v>
       </c>
       <c r="S12">
-        <v>0.08126951256611387</v>
+        <v>0.08023240934758953</v>
       </c>
       <c r="T12">
-        <v>0.08126951256611387</v>
+        <v>0.08023240934758952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.980238703961497</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H13">
-        <v>0.980238703961497</v>
+        <v>3.639883</v>
       </c>
       <c r="I13">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032068</v>
       </c>
       <c r="J13">
-        <v>0.7808234199978222</v>
+        <v>0.7971982836032067</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.7878172995288</v>
+        <v>1.964972666666667</v>
       </c>
       <c r="N13">
-        <v>1.7878172995288</v>
+        <v>5.894918000000001</v>
       </c>
       <c r="O13">
-        <v>0.2365438216369888</v>
+        <v>0.241966140359389</v>
       </c>
       <c r="P13">
-        <v>0.2365438216369888</v>
+        <v>0.241966140359389</v>
       </c>
       <c r="Q13">
-        <v>1.752487712610054</v>
+        <v>2.384090201621555</v>
       </c>
       <c r="R13">
-        <v>1.752487712610054</v>
+        <v>21.456811814594</v>
       </c>
       <c r="S13">
-        <v>0.1846989557899484</v>
+        <v>0.1928949917845975</v>
       </c>
       <c r="T13">
-        <v>0.1846989557899484</v>
+        <v>0.1928949917845975</v>
       </c>
     </row>
   </sheetData>
